--- a/biology/Botanique/Impatiens_niamniamensis/Impatiens_niamniamensis.xlsx
+++ b/biology/Botanique/Impatiens_niamniamensis/Impatiens_niamniamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Impatiens niamniamensis est une espèce de plante à fleurs de la famille des Balsaminaceae. C'est un petit arbre dont les noms vernaculaires sont « impatience du Zaïre » et « impatience bec-de-perroquet ». Son aire de répartition s’étend du Cameroun jusqu'en République centrafricaine, ainsi qu’au sud du Soudan, au sud-ouest du Kenya et au nord-ouest de la Tanzanie, enfin vers le sud jusqu’à l’Angola. L'espèce est présente dans les forêts humides ombragées, dans la brousse, les ripisylves, et les forêts marécageuses, à une altitude comprise entre 350 et 2400 m[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Impatiens niamniamensis est une espèce de plante à fleurs de la famille des Balsaminaceae. C'est un petit arbre dont les noms vernaculaires sont « impatience du Zaïre » et « impatience bec-de-perroquet ». Son aire de répartition s’étend du Cameroun jusqu'en République centrafricaine, ainsi qu’au sud du Soudan, au sud-ouest du Kenya et au nord-ouest de la Tanzanie, enfin vers le sud jusqu’à l’Angola. L'espèce est présente dans les forêts humides ombragées, dans la brousse, les ripisylves, et les forêts marécageuses, à une altitude comprise entre 350 et 2400 m.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-La plante peut atteindre 1 m de haut.[1]
+La plante peut atteindre 1 m de haut.
 Feuilles
-Les feuilles disposées en spirale sont simples[1].
+Les feuilles disposées en spirale sont simples.
 Fleurs et fruits
-Dans son aire naturelle, la plante fleurit toute l’année. Les fleurs sont bisexuées. Le fruit est une capsule charnue et explosive, contenant 5 valves[1].</t>
+Dans son aire naturelle, la plante fleurit toute l’année. Les fleurs sont bisexuées. Le fruit est une capsule charnue et explosive, contenant 5 valves.</t>
         </is>
       </c>
     </row>
@@ -546,12 +560,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usages médicinaux
-Les feuilles sont utilisées pour traiter les troubles cardiaques et soigner les blessures et les plaies[1].
+Les feuilles sont utilisées pour traiter les troubles cardiaques et soigner les blessures et les plaies.
 Usages alimentaires et culinaires
-Les feuilles peuvent être consommées comme un légume. Elles produisent un sel végétal[1].
+Les feuilles peuvent être consommées comme un légume. Elles produisent un sel végétal.
 </t>
         </is>
       </c>
